--- a/documentation/Zeitplan_TNT.xlsx
+++ b/documentation/Zeitplan_TNT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taascti5\Documents\School\tnt\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias.Tonini\Documents\GitHub\tnt\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
     <definedName name="ZeitraumInPlan">Projektplaner!A$4=MEDIAN(Projektplaner!A$4,Projektplaner!$C1,Projektplaner!$C1+Projektplaner!$D1-1)</definedName>
     <definedName name="ZeitraumInTatsächlich">Projektplaner!A$4=MEDIAN(Projektplaner!A$4,Projektplaner!$E1,Projektplaner!$E1+Projektplaner!$F1-1)</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -504,6 +504,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -548,9 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -963,8 +963,8 @@
   </sheetPr>
   <dimension ref="B1:BN23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -986,70 +986,70 @@
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="2:66" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="12">
         <v>3</v>
       </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="27"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="15"/>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="29"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="30"/>
       <c r="Y2" s="16"/>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
     </row>
     <row r="3" spans="2:66" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="17" t="s">
@@ -1076,11 +1076,11 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1317,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1330,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="5">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1356,7 +1356,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1369,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1382,7 +1382,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1395,7 +1395,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="5">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1408,7 +1408,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="5">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1421,7 +1421,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1447,7 +1447,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1460,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1473,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="5">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1486,7 +1486,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="5">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1499,7 +1499,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="5">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1512,7 +1512,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
